--- a/medicine/Mort/Cimetière_Mount_Olivet_(Chicago)/Cimetière_Mount_Olivet_(Chicago).xlsx
+++ b/medicine/Mort/Cimetière_Mount_Olivet_(Chicago)/Cimetière_Mount_Olivet_(Chicago).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mount_Olivet_(Chicago)</t>
+          <t>Cimetière_Mount_Olivet_(Chicago)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Mount Olivet (Mount Olivet Cemetery) est un cimetière catholique situé à Chicago dans l'Illinois. Le cimetière est géré par l'archidiocèse de Chicago et se situe au 2755 West 111th Street.
 Mount Olivet a été consacré en 1855, et fut le premier cimetière catholique à être établi dans le South Side de Chicago. Il y a plus de 142 200 personnes enterrées dans ce cimetière, avec plus de 150 enterrements annuels. Le cimetière comprend 93 hectares (soit 380.000 m2). Il est devenu l'un des premiers grands cimetières de la région, jusqu'à l'achat et l'aménagement des terrains supplémentaires le long de ce qui avait été la frontière orientale du cimetière.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mount_Olivet_(Chicago)</t>
+          <t>Cimetière_Mount_Olivet_(Chicago)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Enterrements notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>James M. Bell, Sergent durant la Bataille de Little Big Horn.
 Al Capone, gangster (provisoirement enterré).
